--- a/ACL Truth Table.xlsx
+++ b/ACL Truth Table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
   <si>
     <t>strict</t>
   </si>
@@ -41,6 +41,69 @@
   </si>
   <si>
     <t>[…, allow, deny]</t>
+  </si>
+  <si>
+    <t>from = void 0</t>
+  </si>
+  <si>
+    <t>redirect = true</t>
+  </si>
+  <si>
+    <t>slot = true</t>
+  </si>
+  <si>
+    <t>modal = false</t>
+  </si>
+  <si>
+    <t>modal = component</t>
+  </si>
+  <si>
+    <t>slot = false</t>
+  </si>
+  <si>
+    <t>slot = component</t>
+  </si>
+  <si>
+    <t>redirect = false</t>
+  </si>
+  <si>
+    <t>from = path</t>
+  </si>
+  <si>
+    <t>1. goto path; 2. render page in slot; 3. ignore error</t>
+  </si>
+  <si>
+    <t>1. goto path; 2. render stub component</t>
+  </si>
+  <si>
+    <t>1. goto path; 2. render page in slot; 3. render modal component</t>
+  </si>
+  <si>
+    <t>1. goto path; 2. render stub component; 3. render modal component</t>
+  </si>
+  <si>
+    <t>1. goto path; 2. render slot component; 3. render modal component</t>
+  </si>
+  <si>
+    <t>1. goto path; 2. render slot component</t>
+  </si>
+  <si>
+    <t>1. goto path; 2. render '/' page in slot; 3. ignore error</t>
+  </si>
+  <si>
+    <t>1. goto '/'; 2. render '/' page in slot; 3. ignore error</t>
+  </si>
+  <si>
+    <t>1. goto '/'; 2. render slot component; 3. error.path = '/'</t>
+  </si>
+  <si>
+    <t>1. goto '/'; 2. render slot component; 3. render modal component; 4. error.path = '/'</t>
+  </si>
+  <si>
+    <t>1. goto '/'; 2. render '/' page in slot; 3. render modal component; 4. error.path = '/'</t>
+  </si>
+  <si>
+    <t>error.from = path</t>
   </si>
 </sst>
 </file>
@@ -91,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -225,12 +288,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -240,7 +337,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -250,23 +346,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,128 +696,439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H1:L10"/>
+  <dimension ref="H1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:L2"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="8:12" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="8:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="3"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H5" s="6"/>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="1" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="6"/>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="7"/>
-      <c r="I7" s="11" t="s">
+      <c r="H7" s="13"/>
+      <c r="I7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="3" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="18" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="M18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+    </row>
+    <row r="19" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="M19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+    </row>
+    <row r="20" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="M20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="X20" s="14"/>
+    </row>
+    <row r="21" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="M21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="12:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="L22" s="17"/>
+      <c r="M22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="W22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y22" s="17"/>
+    </row>
+    <row r="23" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+    </row>
+    <row r="24" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+    </row>
+    <row r="29" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="M29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+    </row>
+    <row r="30" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="M30" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+    </row>
+    <row r="31" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="M31" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="X31" s="14"/>
+    </row>
+    <row r="32" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="M32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="T32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="U32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="V32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="X32" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="25">
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="S23:X23"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="M29:X29"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="M18:X18"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:J5"/>

--- a/ACL Truth Table.xlsx
+++ b/ACL Truth Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="142"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="31">
   <si>
     <t>strict</t>
   </si>
@@ -70,24 +70,6 @@
     <t>from = path</t>
   </si>
   <si>
-    <t>1. goto path; 2. render page in slot; 3. ignore error</t>
-  </si>
-  <si>
-    <t>1. goto path; 2. render stub component</t>
-  </si>
-  <si>
-    <t>1. goto path; 2. render page in slot; 3. render modal component</t>
-  </si>
-  <si>
-    <t>1. goto path; 2. render stub component; 3. render modal component</t>
-  </si>
-  <si>
-    <t>1. goto path; 2. render slot component; 3. render modal component</t>
-  </si>
-  <si>
-    <t>1. goto path; 2. render slot component</t>
-  </si>
-  <si>
     <t>1. goto path; 2. render '/' page in slot; 3. ignore error</t>
   </si>
   <si>
@@ -103,7 +85,28 @@
     <t>1. goto '/'; 2. render '/' page in slot; 3. render modal component; 4. error.path = '/'</t>
   </si>
   <si>
-    <t>error.from = path</t>
+    <t>1. goto to-path; 2. render page in slot; 3. render modal component</t>
+  </si>
+  <si>
+    <t>1. goto to-path; 2. render page in slot; 3. ignore error</t>
+  </si>
+  <si>
+    <t>1. goto to-path; 2. render stub component; 3. render modal component</t>
+  </si>
+  <si>
+    <t>1. goto to-path; 2. render stub component</t>
+  </si>
+  <si>
+    <t>1. goto to-path; 2. render slot component; 3. render modal component</t>
+  </si>
+  <si>
+    <t>1. goto to-path; 2. render slot component</t>
+  </si>
+  <si>
+    <t>if browser navigation goto to-path, error.from = to-path</t>
+  </si>
+  <si>
+    <t>error.from = to-path</t>
   </si>
 </sst>
 </file>
@@ -307,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,6 +322,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,24 +363,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H1:Y33"/>
+  <dimension ref="H1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,48 +722,48 @@
   <sheetData>
     <row r="1" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="8:12" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="8:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H5" s="12"/>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="17"/>
+      <c r="I5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="8" t="s">
+      <c r="J5" s="15"/>
+      <c r="K5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="10"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="12"/>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="13"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="2" t="s">
         <v>2</v>
       </c>
@@ -829,287 +829,337 @@
       </c>
     </row>
     <row r="18" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M18" s="14" t="s">
+      <c r="M18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
     </row>
     <row r="19" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14" t="s">
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
     </row>
     <row r="20" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M20" s="14" t="s">
+      <c r="M20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14" t="s">
+      <c r="N20" s="9"/>
+      <c r="O20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14" t="s">
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14" t="s">
+      <c r="R20" s="9"/>
+      <c r="S20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14" t="s">
+      <c r="T20" s="9"/>
+      <c r="U20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14" t="s">
+      <c r="V20" s="9"/>
+      <c r="W20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="X20" s="14"/>
+      <c r="X20" s="9"/>
     </row>
     <row r="21" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M21" s="15" t="s">
+      <c r="M21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="O21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="P21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q21" s="15" t="s">
+      <c r="Q21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="15" t="s">
+      <c r="R21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S21" s="15" t="s">
+      <c r="S21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T21" s="15" t="s">
+      <c r="T21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U21" s="15" t="s">
+      <c r="U21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="V21" s="15" t="s">
+      <c r="V21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="W21" s="15" t="s">
+      <c r="W21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="X21" s="15" t="s">
+      <c r="X21" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="12:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="L22" s="17"/>
-      <c r="M22" s="18" t="s">
+      <c r="L22" s="7"/>
+      <c r="M22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="W22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="X22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="Y22" s="7"/>
+    </row>
+    <row r="23" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+    </row>
+    <row r="24" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+    </row>
+    <row r="29" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="M29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+    </row>
+    <row r="30" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="M30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+    </row>
+    <row r="31" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="M31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="X31" s="9"/>
+    </row>
+    <row r="32" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="M32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="13:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="M33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="U33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="V33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="W33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="R22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="T22" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="U22" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="V22" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="W22" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="X22" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y22" s="17"/>
-    </row>
-    <row r="23" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="19" t="s">
+      <c r="X33" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="13:24" x14ac:dyDescent="0.25">
+      <c r="S34" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-    </row>
-    <row r="24" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-    </row>
-    <row r="29" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-    </row>
-    <row r="30" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M30" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-    </row>
-    <row r="31" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M31" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="X31" s="14"/>
-    </row>
-    <row r="32" spans="12:25" x14ac:dyDescent="0.25">
-      <c r="M32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N32" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="P32" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="R32" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="S32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="T32" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="U32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="V32" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="W32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="X32" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="13:24" x14ac:dyDescent="0.25">
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="S34:X34"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="M18:X18"/>
+    <mergeCell ref="S19:X19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
     <mergeCell ref="W31:X31"/>
     <mergeCell ref="S23:X23"/>
     <mergeCell ref="M31:N31"/>
@@ -1120,21 +1170,6 @@
     <mergeCell ref="M29:X29"/>
     <mergeCell ref="M30:R30"/>
     <mergeCell ref="S30:X30"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="M18:X18"/>
-    <mergeCell ref="S19:X19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
